--- a/data/formularios/FormularioDAPcampeche1.xlsx
+++ b/data/formularios/FormularioDAPcampeche1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive1\Haiti_DR_Woodfuel_Mapping2016\FieldWork_SepOct2019\Plots\Hinche\Campeche\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B7D26-5BD0-4867-BE1E-DA226FA57B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="0" windowWidth="17640" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,8 +14,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$P$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="64">
   <si>
     <t>Lat_v1</t>
   </si>
@@ -223,11 +220,14 @@
   <si>
     <t xml:space="preserve">Amande </t>
   </si>
+  <si>
+    <t>Campeche</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -334,42 +334,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -377,23 +377,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,7 +408,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -454,21 +454,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -482,11 +467,26 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +596,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,76 +821,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.5" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="5"/>
+    <col min="21" max="21" width="14.1640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="E2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -902,18 +904,18 @@
       <c r="Q3" s="16"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -947,7 +949,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -965,7 +967,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -995,7 +997,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1011,30 +1013,30 @@
       <c r="R8"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1046,16 +1048,16 @@
       <c r="R9"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1069,7 +1071,7 @@
       <c r="R10"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="21" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1110,7 @@
       <c r="R11"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1149,7 @@
       <c r="R12"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1188,7 @@
       <c r="R13"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
@@ -1225,7 +1227,7 @@
       <c r="R14"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1266,7 @@
       <c r="R15"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="21" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1305,7 @@
       <c r="R16"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1342,7 +1344,7 @@
       <c r="R17"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="21" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1383,7 @@
       <c r="R18"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1422,7 @@
       <c r="R19"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="21" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +1461,7 @@
       <c r="R20"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="21" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1500,7 @@
       <c r="R21"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="21" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1539,7 @@
       <c r="R22"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1578,7 @@
       <c r="R23"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
@@ -1615,7 +1617,7 @@
       <c r="R24"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1656,7 @@
       <c r="R25"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1695,7 @@
       <c r="R26"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="21" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1734,7 @@
       <c r="R27"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="21" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1773,7 @@
       <c r="R28"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="21" t="s">
         <v>24</v>
       </c>
@@ -1810,7 +1812,7 @@
       <c r="R29"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="R30"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="21" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +1890,7 @@
       <c r="R31"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="21" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1929,7 @@
       <c r="R32"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="252">
       <c r="A33" s="21" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +1968,7 @@
       <c r="R33"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="21" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2007,7 @@
       <c r="R34"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="21" t="s">
         <v>24</v>
       </c>
@@ -2044,7 +2046,7 @@
       <c r="R35"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="21" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2085,7 @@
       <c r="R36"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="21" t="s">
         <v>24</v>
       </c>
@@ -2122,7 +2124,7 @@
       <c r="R37"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="252">
       <c r="A38" s="21" t="s">
         <v>24</v>
       </c>
@@ -2161,7 +2163,7 @@
       <c r="R38"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="21" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2202,7 @@
       <c r="R39"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
@@ -2233,12 +2235,12 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="21" t="s">
         <v>24</v>
       </c>
@@ -2271,13 +2273,13 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="R41"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="21" t="s">
         <v>24</v>
       </c>
@@ -2310,13 +2312,13 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
       <c r="R42"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="21" t="s">
         <v>24</v>
       </c>
@@ -2349,13 +2351,13 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
       <c r="R43"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="21" t="s">
         <v>24</v>
       </c>
@@ -2394,7 +2396,7 @@
       <c r="R44"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="21" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2435,7 @@
       <c r="R45"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="21" t="s">
         <v>24</v>
       </c>
@@ -2472,7 +2474,7 @@
       <c r="R46"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="21" t="s">
         <v>24</v>
       </c>
@@ -2511,7 +2513,7 @@
       <c r="R47"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="21" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="R48"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="21" t="s">
         <v>24</v>
       </c>
@@ -2587,7 +2589,7 @@
       <c r="P49" s="15"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="21" t="s">
         <v>24</v>
       </c>
@@ -2624,7 +2626,7 @@
       <c r="P50" s="15"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="21" t="s">
         <v>24</v>
       </c>
@@ -2661,7 +2663,7 @@
       <c r="P51" s="15"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="21" t="s">
         <v>24</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="P52" s="15"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="21" t="s">
         <v>24</v>
       </c>
@@ -2735,7 +2737,7 @@
       <c r="P53" s="15"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="21" t="s">
         <v>24</v>
       </c>
@@ -2772,7 +2774,7 @@
       <c r="P54" s="15"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="21" t="s">
         <v>24</v>
       </c>
@@ -2809,7 +2811,7 @@
       <c r="P55" s="15"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="21" t="s">
         <v>24</v>
       </c>
@@ -2846,7 +2848,7 @@
       <c r="P56" s="15"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="21" t="s">
         <v>24</v>
       </c>
@@ -2883,7 +2885,7 @@
       <c r="P57" s="15"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="21" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2922,7 @@
       <c r="P58" s="15"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="21" t="s">
         <v>24</v>
       </c>
@@ -2957,7 +2959,7 @@
       <c r="P59" s="15"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="252">
       <c r="A60" s="21" t="s">
         <v>24</v>
       </c>
@@ -2994,7 +2996,7 @@
       <c r="P60" s="15"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="21" t="s">
         <v>24</v>
       </c>
@@ -3031,7 +3033,7 @@
       <c r="P61" s="15"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="21" t="s">
         <v>24</v>
       </c>
@@ -3068,7 +3070,7 @@
       <c r="P62" s="15"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="21" t="s">
         <v>24</v>
       </c>
@@ -3105,7 +3107,7 @@
       <c r="P63" s="15"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="21" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3144,7 @@
       <c r="P64" s="15"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="21" t="s">
         <v>24</v>
       </c>
@@ -3179,7 +3181,7 @@
       <c r="P65" s="15"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="21" t="s">
         <v>24</v>
       </c>
@@ -3216,7 +3218,7 @@
       <c r="P66" s="15"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="21" t="s">
         <v>24</v>
       </c>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="21" t="s">
         <v>24</v>
       </c>
@@ -3276,7 +3278,7 @@
       </c>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="21" t="s">
         <v>24</v>
       </c>
@@ -3306,7 +3308,7 @@
       </c>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="21" t="s">
         <v>24</v>
       </c>
@@ -3336,7 +3338,7 @@
       </c>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="21" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +3368,7 @@
       </c>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="21" t="s">
         <v>24</v>
       </c>
@@ -3396,7 +3398,7 @@
       </c>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="21" t="s">
         <v>24</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="21" t="s">
         <v>24</v>
       </c>
@@ -3455,7 +3457,7 @@
       </c>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="21" t="s">
         <v>24</v>
       </c>
@@ -3485,7 +3487,7 @@
       </c>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="21" t="s">
         <v>24</v>
       </c>
@@ -3515,7 +3517,7 @@
       </c>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="21" t="s">
         <v>24</v>
       </c>
@@ -3545,7 +3547,7 @@
       </c>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="21" t="s">
         <v>24</v>
       </c>
@@ -3575,7 +3577,7 @@
       </c>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="21" t="s">
         <v>24</v>
       </c>
@@ -3605,7 +3607,7 @@
       </c>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="21" t="s">
         <v>24</v>
       </c>
@@ -3635,7 +3637,7 @@
       </c>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="21" t="s">
         <v>24</v>
       </c>
@@ -3665,7 +3667,7 @@
       </c>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="21" t="s">
         <v>24</v>
       </c>
@@ -3695,7 +3697,7 @@
       </c>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="21" t="s">
         <v>24</v>
       </c>
@@ -3725,7 +3727,7 @@
       </c>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="21" t="s">
         <v>24</v>
       </c>
@@ -3755,7 +3757,7 @@
       </c>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="21" t="s">
         <v>24</v>
       </c>
@@ -3785,7 +3787,7 @@
       </c>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="21" t="s">
         <v>24</v>
       </c>
@@ -3815,7 +3817,7 @@
       </c>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="21" t="s">
         <v>24</v>
       </c>
@@ -3845,7 +3847,7 @@
       </c>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="21" t="s">
         <v>24</v>
       </c>
@@ -3875,7 +3877,7 @@
       </c>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="21" t="s">
         <v>24</v>
       </c>
@@ -3905,7 +3907,7 @@
       </c>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="21" t="s">
         <v>24</v>
       </c>
@@ -3935,7 +3937,7 @@
       </c>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="21" t="s">
         <v>24</v>
       </c>
@@ -3965,7 +3967,7 @@
       </c>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="21" t="s">
         <v>24</v>
       </c>
@@ -3995,7 +3997,7 @@
       </c>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="21" t="s">
         <v>24</v>
       </c>
@@ -4025,7 +4027,7 @@
       </c>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19">
       <c r="A94" s="21" t="s">
         <v>24</v>
       </c>
@@ -4055,7 +4057,7 @@
       </c>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="21" t="s">
         <v>24</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="21" t="s">
         <v>24</v>
       </c>
@@ -4114,7 +4116,7 @@
       </c>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" ht="285" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="252">
       <c r="A97" s="21" t="s">
         <v>24</v>
       </c>
@@ -4144,7 +4146,7 @@
       </c>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="21" t="s">
         <v>24</v>
       </c>
@@ -4174,7 +4176,7 @@
       </c>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="21" t="s">
         <v>24</v>
       </c>
@@ -4204,7 +4206,7 @@
       </c>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="21" t="s">
         <v>24</v>
       </c>
@@ -4234,7 +4236,7 @@
       </c>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="21" t="s">
         <v>24</v>
       </c>
@@ -4264,7 +4266,7 @@
       </c>
       <c r="S101" s="7"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="21" t="s">
         <v>24</v>
       </c>
@@ -4294,7 +4296,7 @@
       </c>
       <c r="S102" s="7"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="21" t="s">
         <v>24</v>
       </c>
@@ -4324,7 +4326,7 @@
       </c>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="21" t="s">
         <v>24</v>
       </c>
@@ -4354,7 +4356,7 @@
       </c>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="21" t="s">
         <v>24</v>
       </c>
@@ -4384,7 +4386,7 @@
       </c>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="21" t="s">
         <v>24</v>
       </c>
@@ -4414,7 +4416,7 @@
       </c>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="21" t="s">
         <v>24</v>
       </c>
@@ -4444,7 +4446,7 @@
       </c>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="21" t="s">
         <v>24</v>
       </c>
@@ -4474,7 +4476,7 @@
       </c>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="21" t="s">
         <v>24</v>
       </c>
@@ -4500,7 +4502,7 @@
       </c>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="21" t="s">
         <v>24</v>
       </c>
@@ -4530,7 +4532,7 @@
       </c>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="21" t="s">
         <v>24</v>
       </c>
@@ -4560,7 +4562,7 @@
       </c>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="21" t="s">
         <v>24</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="21" t="s">
         <v>24</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="21" t="s">
         <v>24</v>
       </c>
@@ -4647,7 +4649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="21" t="s">
         <v>24</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="21" t="s">
         <v>24</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="21" t="s">
         <v>24</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="21" t="s">
         <v>24</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="21" t="s">
         <v>24</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="21" t="s">
         <v>24</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="21" t="s">
         <v>24</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="21" t="s">
         <v>24</v>
       </c>
@@ -4879,7 +4881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="21" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="21" t="s">
         <v>24</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="21" t="s">
         <v>24</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="21" t="s">
         <v>24</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="21" t="s">
         <v>24</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="21" t="s">
         <v>24</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="21" t="s">
         <v>24</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="21" t="s">
         <v>24</v>
       </c>
@@ -5111,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="21" t="s">
         <v>24</v>
       </c>
@@ -5140,7 +5142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="21" t="s">
         <v>24</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="21" t="s">
         <v>24</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="21" t="s">
         <v>24</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="21" t="s">
         <v>24</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="21" t="s">
         <v>24</v>
       </c>
@@ -5285,7 +5287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="21" t="s">
         <v>24</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="21" t="s">
         <v>24</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="21" t="s">
         <v>24</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="21" t="s">
         <v>24</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="21" t="s">
         <v>24</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="21" t="s">
         <v>24</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="21" t="s">
         <v>24</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="21" t="s">
         <v>24</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="21" t="s">
         <v>24</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="21" t="s">
         <v>24</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="21" t="s">
         <v>24</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="21" t="s">
         <v>24</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="21" t="s">
         <v>24</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="21" t="s">
         <v>24</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="21" t="s">
         <v>24</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="21" t="s">
         <v>24</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="21" t="s">
         <v>24</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="21" t="s">
         <v>24</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="21" t="s">
         <v>24</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="21" t="s">
         <v>24</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="21" t="s">
         <v>24</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="21" t="s">
         <v>24</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="21" t="s">
         <v>24</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="21" t="s">
         <v>24</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="21" t="s">
         <v>24</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="21" t="s">
         <v>24</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="21" t="s">
         <v>24</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="21" t="s">
         <v>24</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="21" t="s">
         <v>24</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="21" t="s">
         <v>24</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="21" t="s">
         <v>24</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="21" t="s">
         <v>24</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="21" t="s">
         <v>24</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="21" t="s">
         <v>24</v>
       </c>
@@ -6271,7 +6273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="21" t="s">
         <v>24</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="21" t="s">
         <v>24</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="21" t="s">
         <v>24</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="21" t="s">
         <v>24</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="21" t="s">
         <v>24</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="21" t="s">
         <v>24</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="21" t="s">
         <v>24</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="21" t="s">
         <v>24</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="21" t="s">
         <v>24</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="21" t="s">
         <v>24</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="21" t="s">
         <v>24</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="21" t="s">
         <v>24</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="21" t="s">
         <v>24</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="21" t="s">
         <v>24</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="21" t="s">
         <v>24</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="21" t="s">
         <v>24</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="21" t="s">
         <v>24</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="21" t="s">
         <v>24</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="21" t="s">
         <v>24</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="21" t="s">
         <v>24</v>
       </c>
@@ -6851,7 +6853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="21" t="s">
         <v>24</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="21" t="s">
         <v>24</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="21" t="s">
         <v>24</v>
       </c>
@@ -6938,7 +6940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="21" t="s">
         <v>24</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="21" t="s">
         <v>24</v>
       </c>
@@ -6996,7 +6998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="21" t="s">
         <v>24</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="21" t="s">
         <v>24</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="21" t="s">
         <v>24</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="21" t="s">
         <v>24</v>
       </c>
@@ -7112,7 +7114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="21" t="s">
         <v>24</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="21" t="s">
         <v>24</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="21" t="s">
         <v>24</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="21" t="s">
         <v>24</v>
       </c>
@@ -7228,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="21" t="s">
         <v>24</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="21" t="s">
         <v>24</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="21" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="21" t="s">
         <v>24</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="21" t="s">
         <v>24</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="21" t="s">
         <v>24</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="21" t="s">
         <v>24</v>
       </c>
@@ -7431,7 +7433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="70">
       <c r="A211" s="21" t="s">
         <v>24</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="70">
       <c r="A212" s="21" t="s">
         <v>24</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="21" t="s">
         <v>24</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="266">
       <c r="A214" s="21" t="s">
         <v>24</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="21" t="s">
         <v>24</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="21" t="s">
         <v>24</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="21" t="s">
         <v>24</v>
       </c>
@@ -7634,7 +7636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="21" t="s">
         <v>24</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="21" t="s">
         <v>24</v>
       </c>
@@ -7692,7 +7694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="252">
       <c r="A220" s="21" t="s">
         <v>24</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="21" t="s">
         <v>24</v>
       </c>
@@ -7750,7 +7752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="21" t="s">
         <v>24</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="21" t="s">
         <v>24</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="21" t="s">
         <v>24</v>
       </c>
@@ -7837,7 +7839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="21" t="s">
         <v>24</v>
       </c>
@@ -7866,7 +7868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="21" t="s">
         <v>24</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="21" t="s">
         <v>24</v>
       </c>
@@ -7924,7 +7926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="21" t="s">
         <v>24</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="21" t="s">
         <v>24</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="21" t="s">
         <v>24</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="21" t="s">
         <v>24</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="21" t="s">
         <v>24</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="21" t="s">
         <v>24</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="21" t="s">
         <v>24</v>
       </c>
@@ -8127,7 +8129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="21" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +8158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="21" t="s">
         <v>24</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="21" t="s">
         <v>24</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="21" t="s">
         <v>24</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="21" t="s">
         <v>24</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="21" t="s">
         <v>24</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="21" t="s">
         <v>24</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="21" t="s">
         <v>24</v>
       </c>
@@ -8359,7 +8361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="21" t="s">
         <v>24</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="21" t="s">
         <v>24</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="21" t="s">
         <v>24</v>
       </c>
@@ -8446,7 +8448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="21" t="s">
         <v>24</v>
       </c>
@@ -8475,7 +8477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="21" t="s">
         <v>24</v>
       </c>
@@ -8504,7 +8506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="21" t="s">
         <v>24</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="21" t="s">
         <v>24</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="21" t="s">
         <v>24</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="21" t="s">
         <v>24</v>
       </c>
@@ -8620,7 +8622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="21" t="s">
         <v>24</v>
       </c>
@@ -8649,7 +8651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="21" t="s">
         <v>24</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="21" t="s">
         <v>24</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="21" t="s">
         <v>24</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="21" t="s">
         <v>24</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="21" t="s">
         <v>24</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="21" t="s">
         <v>24</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="21" t="s">
         <v>24</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="21" t="s">
         <v>24</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="21" t="s">
         <v>24</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="21" t="s">
         <v>24</v>
       </c>
@@ -8939,7 +8941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="21" t="s">
         <v>24</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="21" t="s">
         <v>24</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="21" t="s">
         <v>24</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="21" t="s">
         <v>24</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="21" t="s">
         <v>24</v>
       </c>
@@ -9084,7 +9086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="21" t="s">
         <v>24</v>
       </c>
@@ -9113,7 +9115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="21" t="s">
         <v>24</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="21" t="s">
         <v>24</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271" s="21" t="s">
         <v>24</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="21" t="s">
         <v>24</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="21" t="s">
         <v>24</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="21" t="s">
         <v>24</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" s="21" t="s">
         <v>24</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="21" t="s">
         <v>24</v>
       </c>
@@ -9345,7 +9347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" s="21" t="s">
         <v>24</v>
       </c>
@@ -9374,7 +9376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" s="21" t="s">
         <v>24</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" s="21" t="s">
         <v>24</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" s="21" t="s">
         <v>24</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281" s="21" t="s">
         <v>24</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282" s="21" t="s">
         <v>24</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283" s="21" t="s">
         <v>24</v>
       </c>
@@ -9548,7 +9550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284" s="21" t="s">
         <v>24</v>
       </c>
@@ -9577,7 +9579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285" s="21" t="s">
         <v>24</v>
       </c>
@@ -9606,7 +9608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286" s="21" t="s">
         <v>24</v>
       </c>
@@ -9635,7 +9637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287" s="21" t="s">
         <v>24</v>
       </c>
@@ -9664,7 +9666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288" s="21" t="s">
         <v>24</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9">
       <c r="A289" s="21" t="s">
         <v>24</v>
       </c>
@@ -9722,7 +9724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290" s="21" t="s">
         <v>24</v>
       </c>
@@ -9751,7 +9753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291" s="21" t="s">
         <v>24</v>
       </c>
@@ -9782,6 +9784,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="O42:Q42"/>
     <mergeCell ref="O43:Q43"/>
     <mergeCell ref="E2:I2"/>
@@ -9795,36 +9801,46 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>